--- a/medicine/Psychotrope/Ripasso/Ripasso.xlsx
+++ b/medicine/Psychotrope/Ripasso/Ripasso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appellation Ripasso (littéralement "repassé"), originellement associé au vin Valpolicella, désigne une refermentation du vin sur des lies d'Amarone et/ou du raisin passerillé. Ce processus donne plus de caractère et de corps au vin et élève son degré alcoolique.
 Cette technique a été introduite par le producteur Masi. Après une longue querelle sur la propriété intellectuelle  de cette appellation, un accord en 2006 a été trouvé entre le producteur et le Consortium pour la Tutelle des Vins Valpolicella. La propriété est transférée à la chambre de commerce de Vérone.
@@ -517,7 +529,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">http://vinquebec.com/node/2163
  Portail de la vigne et du vin   Portail de l’Italie                    </t>
